--- a/rpaAssignment5.2.xlsx
+++ b/rpaAssignment5.2.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="97">
   <si>
     <t xml:space="preserve">Customer Number</t>
   </si>
@@ -55,115 +55,118 @@
     <t xml:space="preserve">eathallyashfaaq20@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">03/10/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Drive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wagner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wagnerjean@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26/08/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jackson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alfred</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jacksonalfred@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31/08/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benjamin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jacksonbenjamin@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27/08/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Richard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brownrichard@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28/08/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arnold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arnolddiane@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30/08/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonnie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">johnsonbonnie@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detailing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sullivan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stephanie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sullivanstephanie@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elizabeth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">joneselizabeth@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ellis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ellismike@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">29/08/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Drive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wagner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wagnerjean@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26/08/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jackson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alfred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jacksonalfred@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31/08/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benjamin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jacksonbenjamin@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27/08/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Richard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brownrichard@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28/08/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arnold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arnolddiane@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30/08/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Johnson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bonnie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">johnsonbonnie@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detailing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sullivan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stephanie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sullivanstephanie@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elizabeth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">joneselizabeth@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ellis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mike</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ellismike@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Sharon</t>
@@ -314,8 +317,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -397,7 +401,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -407,6 +411,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -490,6 +498,112 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -498,7 +612,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -541,7 +655,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
@@ -557,7 +671,7 @@
       <c r="E2" s="2" t="n">
         <v>57938845</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -577,7 +691,7 @@
       <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="2" t="n">
@@ -603,10 +717,10 @@
       <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="E4" s="5" t="n">
         <v>50964410</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -629,10 +743,10 @@
       <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="4" t="n">
+      <c r="E5" s="5" t="n">
         <v>51492556</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -655,10 +769,10 @@
       <c r="C6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="4" t="n">
+      <c r="E6" s="5" t="n">
         <v>51663213</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -681,10 +795,10 @@
       <c r="C7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="4" t="n">
+      <c r="E7" s="5" t="n">
         <v>54621423</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -707,10 +821,10 @@
       <c r="C8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="4" t="n">
+      <c r="E8" s="5" t="n">
         <v>55083048</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -733,10 +847,10 @@
       <c r="C9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="4" t="n">
+      <c r="E9" s="5" t="n">
         <v>51463851</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -759,10 +873,10 @@
       <c r="C10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="4" t="n">
+      <c r="E10" s="5" t="n">
         <v>59835223</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -785,14 +899,14 @@
       <c r="C11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="4" t="n">
+      <c r="E11" s="5" t="n">
         <v>59251016</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>18</v>
@@ -809,12 +923,12 @@
         <v>26</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="4" t="n">
+      <c r="D12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="5" t="n">
         <v>59697199</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -832,15 +946,15 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="4" t="n">
+      <c r="D13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="5" t="n">
         <v>56882272</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -858,15 +972,15 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="4" t="n">
+      <c r="D14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="5" t="n">
         <v>53003716</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -884,15 +998,15 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="4" t="n">
+      <c r="D15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="5" t="n">
         <v>51839619</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -902,7 +1016,7 @@
         <v>37</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -910,25 +1024,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="4" t="n">
+      <c r="D16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="5" t="n">
         <v>51490437</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -936,15 +1050,15 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="4" t="n">
+      <c r="D17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="5" t="n">
         <v>58245934</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -954,7 +1068,7 @@
         <v>18</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -962,25 +1076,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="4" t="n">
+      <c r="D18" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="5" t="n">
         <v>54069721</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -988,25 +1102,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="4" t="n">
+      <c r="D19" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="5" t="n">
         <v>56278530</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1014,25 +1128,25 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="4" t="n">
+      <c r="D20" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="5" t="n">
         <v>55963741</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1040,25 +1154,25 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="4" t="n">
+      <c r="D21" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="5" t="n">
         <v>59632025</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1066,25 +1180,25 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E22" s="4" t="n">
+      <c r="D22" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="5" t="n">
         <v>53486999</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1092,15 +1206,15 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E23" s="4" t="n">
+      <c r="D23" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="5" t="n">
         <v>57658488</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -1110,7 +1224,7 @@
         <v>37</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1118,25 +1232,25 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="4" t="n">
+      <c r="D24" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="5" t="n">
         <v>56199108</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1144,25 +1258,25 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D25" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E25" s="4" t="n">
+      <c r="D25" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" s="5" t="n">
         <v>53811651</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1170,25 +1284,25 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D26" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E26" s="4" t="n">
+      <c r="D26" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="5" t="n">
         <v>50762374</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/rpaAssignment5.2.xlsx
+++ b/rpaAssignment5.2.xlsx
@@ -55,7 +55,7 @@
     <t xml:space="preserve">eathallyashfaaq20@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">03/10/2024</t>
+    <t xml:space="preserve">07/10/2024</t>
   </si>
   <si>
     <t xml:space="preserve">10 00</t>
@@ -612,7 +612,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
